--- a/Code/Results/Cases/Case_1_128/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_128/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9835283246197626</v>
+        <v>1.038140866589673</v>
       </c>
       <c r="D2">
-        <v>1.025011384612111</v>
+        <v>1.035478105637088</v>
       </c>
       <c r="E2">
-        <v>0.9910672226292585</v>
+        <v>1.036713933457367</v>
       </c>
       <c r="F2">
-        <v>0.9594870489250386</v>
+        <v>1.036855476723082</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041509718680052</v>
+        <v>1.038314527069739</v>
       </c>
       <c r="J2">
-        <v>1.00621311560067</v>
+        <v>1.043239918403781</v>
       </c>
       <c r="K2">
-        <v>1.036132930298086</v>
+        <v>1.038274595874669</v>
       </c>
       <c r="L2">
-        <v>1.002652424195297</v>
+        <v>1.039506886416251</v>
       </c>
       <c r="M2">
-        <v>0.971541214570655</v>
+        <v>1.039648025130748</v>
       </c>
       <c r="N2">
-        <v>1.007642053639081</v>
+        <v>1.044721438749274</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9930693276975922</v>
+        <v>1.03986110267309</v>
       </c>
       <c r="D3">
-        <v>1.029181093902438</v>
+        <v>1.036208875121174</v>
       </c>
       <c r="E3">
-        <v>0.9991460427304458</v>
+        <v>1.038207001999305</v>
       </c>
       <c r="F3">
-        <v>0.9720462003443968</v>
+        <v>1.039213542259758</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044673876677497</v>
+        <v>1.038769739696946</v>
       </c>
       <c r="J3">
-        <v>1.013750729676566</v>
+        <v>1.044600960472505</v>
       </c>
       <c r="K3">
-        <v>1.039453730477627</v>
+        <v>1.03881497757039</v>
       </c>
       <c r="L3">
-        <v>1.009789861772929</v>
+        <v>1.040807802397683</v>
       </c>
       <c r="M3">
-        <v>0.9830497072540555</v>
+        <v>1.041811680137632</v>
       </c>
       <c r="N3">
-        <v>1.01519037199154</v>
+        <v>1.046084413653781</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9989886519917295</v>
+        <v>1.040970149254108</v>
       </c>
       <c r="D4">
-        <v>1.031781812007582</v>
+        <v>1.036680132471149</v>
       </c>
       <c r="E4">
-        <v>1.004163667755439</v>
+        <v>1.039169558261267</v>
       </c>
       <c r="F4">
-        <v>0.9798244611729579</v>
+        <v>1.040734650820889</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046623264950446</v>
+        <v>1.03906133762111</v>
       </c>
       <c r="J4">
-        <v>1.018418263582703</v>
+        <v>1.045477326239966</v>
       </c>
       <c r="K4">
-        <v>1.041511213048455</v>
+        <v>1.03916237839967</v>
       </c>
       <c r="L4">
-        <v>1.014212099388329</v>
+        <v>1.04164553380857</v>
       </c>
       <c r="M4">
-        <v>0.9901726447396914</v>
+        <v>1.043206700744708</v>
       </c>
       <c r="N4">
-        <v>1.019864534331198</v>
+        <v>1.046962023961152</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.001420974800097</v>
+        <v>1.041435439614219</v>
       </c>
       <c r="D5">
-        <v>1.032853413576174</v>
+        <v>1.036877870857753</v>
       </c>
       <c r="E5">
-        <v>1.00622663683528</v>
+        <v>1.039573380853299</v>
       </c>
       <c r="F5">
-        <v>0.9830181413762804</v>
+        <v>1.041373027166922</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047420894041153</v>
+        <v>1.039183223543237</v>
       </c>
       <c r="J5">
-        <v>1.020334050528549</v>
+        <v>1.045844732373075</v>
       </c>
       <c r="K5">
-        <v>1.042355781534533</v>
+        <v>1.039307888972226</v>
       </c>
       <c r="L5">
-        <v>1.016027758636777</v>
+        <v>1.041996761908095</v>
       </c>
       <c r="M5">
-        <v>0.9930960686061311</v>
+        <v>1.043791997588426</v>
       </c>
       <c r="N5">
-        <v>1.021783041914251</v>
+        <v>1.047329951853113</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.00182620562769</v>
+        <v>1.041513508599431</v>
       </c>
       <c r="D6">
-        <v>1.033032107402317</v>
+        <v>1.036911049959719</v>
       </c>
       <c r="E6">
-        <v>1.006570397153275</v>
+        <v>1.039641135876314</v>
       </c>
       <c r="F6">
-        <v>0.9835500887707361</v>
+        <v>1.04148014990875</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047553577778662</v>
+        <v>1.039203647730813</v>
       </c>
       <c r="J6">
-        <v>1.020653097220203</v>
+        <v>1.045906362244042</v>
       </c>
       <c r="K6">
-        <v>1.042496431293977</v>
+        <v>1.039332289502843</v>
       </c>
       <c r="L6">
-        <v>1.016330161849302</v>
+        <v>1.042055679128973</v>
       </c>
       <c r="M6">
-        <v>0.9935829295101719</v>
+        <v>1.043890203750106</v>
       </c>
       <c r="N6">
-        <v>1.022102541688802</v>
+        <v>1.047391669245565</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9990213676768208</v>
+        <v>1.04097637020426</v>
       </c>
       <c r="D7">
-        <v>1.031796214292828</v>
+        <v>1.03668277614072</v>
       </c>
       <c r="E7">
-        <v>1.004191411043829</v>
+        <v>1.039174957421977</v>
       </c>
       <c r="F7">
-        <v>0.9798674264222406</v>
+        <v>1.040743185107367</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046634007000308</v>
+        <v>1.039062969016872</v>
       </c>
       <c r="J7">
-        <v>1.018444040270832</v>
+        <v>1.0454822395171</v>
       </c>
       <c r="K7">
-        <v>1.041522576565384</v>
+        <v>1.039164324821388</v>
       </c>
       <c r="L7">
-        <v>1.014236526729182</v>
+        <v>1.041650230664598</v>
       </c>
       <c r="M7">
-        <v>0.9902119789792078</v>
+        <v>1.043214526066867</v>
       </c>
       <c r="N7">
-        <v>1.019890347625181</v>
+        <v>1.046966944215703</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9868084623345994</v>
+        <v>1.038723081090047</v>
       </c>
       <c r="D8">
-        <v>1.026441725305386</v>
+        <v>1.035725406611352</v>
       </c>
       <c r="E8">
-        <v>0.9938434170913828</v>
+        <v>1.037219269517685</v>
       </c>
       <c r="F8">
-        <v>0.9638081921236961</v>
+        <v>1.037653391989859</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042600374014233</v>
+        <v>1.038468983576263</v>
       </c>
       <c r="J8">
-        <v>1.008806368237231</v>
+        <v>1.043700793035233</v>
       </c>
       <c r="K8">
-        <v>1.037275053247609</v>
+        <v>1.038457691757766</v>
       </c>
       <c r="L8">
-        <v>1.005107434122138</v>
+        <v>1.039947384334199</v>
       </c>
       <c r="M8">
-        <v>0.9755017957584118</v>
+        <v>1.040380297333382</v>
       </c>
       <c r="N8">
-        <v>1.010238988991836</v>
+        <v>1.045182967875497</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9630882533880418</v>
+        <v>1.034720514914967</v>
       </c>
       <c r="D9">
-        <v>1.016177860544999</v>
+        <v>1.034025936397334</v>
       </c>
       <c r="E9">
-        <v>0.973798765167522</v>
+        <v>1.033745118796011</v>
       </c>
       <c r="F9">
-        <v>0.9324602406668718</v>
+        <v>1.032171218146889</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034658110813443</v>
+        <v>1.037399418563429</v>
       </c>
       <c r="J9">
-        <v>0.9900153485712113</v>
+        <v>1.040527848416889</v>
       </c>
       <c r="K9">
-        <v>1.029013805020006</v>
+        <v>1.037194967300348</v>
       </c>
       <c r="L9">
-        <v>0.9873317419720448</v>
+        <v>1.036915069874215</v>
       </c>
       <c r="M9">
-        <v>0.946753187879627</v>
+        <v>1.035346336699589</v>
       </c>
       <c r="N9">
-        <v>0.9914212839225301</v>
+        <v>1.042005517311853</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9453626888275707</v>
+        <v>1.032029395828266</v>
       </c>
       <c r="D10">
-        <v>1.008636535600133</v>
+        <v>1.032884273184938</v>
       </c>
       <c r="E10">
-        <v>0.9588704921624942</v>
+        <v>1.031409189868671</v>
       </c>
       <c r="F10">
-        <v>0.9088445174317707</v>
+        <v>1.028489162904156</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028658424929785</v>
+        <v>1.036670627673494</v>
       </c>
       <c r="J10">
-        <v>0.9759252824493412</v>
+        <v>1.03838879719825</v>
       </c>
       <c r="K10">
-        <v>1.022851586159549</v>
+        <v>1.036341040944949</v>
       </c>
       <c r="L10">
-        <v>0.9740243006004268</v>
+        <v>1.034871271455367</v>
       </c>
       <c r="M10">
-        <v>0.9250807987458415</v>
+        <v>1.031961813214676</v>
       </c>
       <c r="N10">
-        <v>0.9773112082906137</v>
+        <v>1.039863428395131</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9371040072782709</v>
+        <v>1.030858439388013</v>
       </c>
       <c r="D11">
-        <v>1.005163300974676</v>
+        <v>1.032387791739671</v>
       </c>
       <c r="E11">
-        <v>0.9519311016338887</v>
+        <v>1.030392775157118</v>
       </c>
       <c r="F11">
-        <v>0.8977704522868215</v>
+        <v>1.026887870972091</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.025850369088188</v>
+        <v>1.03635123678712</v>
       </c>
       <c r="J11">
-        <v>0.9693494374059322</v>
+        <v>1.037456699806287</v>
       </c>
       <c r="K11">
-        <v>1.019988497505516</v>
+        <v>1.03596833821108</v>
       </c>
       <c r="L11">
-        <v>0.9678202633904857</v>
+        <v>1.033980790861792</v>
       </c>
       <c r="M11">
-        <v>0.9149172591125194</v>
+        <v>1.030489086703723</v>
       </c>
       <c r="N11">
-        <v>0.9707260247929831</v>
+        <v>1.038930007317958</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9339341834793475</v>
+        <v>1.030422615904799</v>
       </c>
       <c r="D12">
-        <v>1.003837299015543</v>
+        <v>1.032203049763995</v>
       </c>
       <c r="E12">
-        <v>0.9492704572894453</v>
+        <v>1.030014471116093</v>
       </c>
       <c r="F12">
-        <v>0.8935063901078413</v>
+        <v>1.026291998319505</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.024770961293191</v>
+        <v>1.036232019821076</v>
       </c>
       <c r="J12">
-        <v>0.9668238898933355</v>
+        <v>1.03710957479424</v>
       </c>
       <c r="K12">
-        <v>1.018891349849353</v>
+        <v>1.035829450850619</v>
       </c>
       <c r="L12">
-        <v>0.9654386623240822</v>
+        <v>1.033649181387268</v>
       </c>
       <c r="M12">
-        <v>0.9110040056808869</v>
+        <v>1.029940931651715</v>
       </c>
       <c r="N12">
-        <v>0.9681968907132341</v>
+        <v>1.038582389348579</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9346190198419894</v>
+        <v>1.030516141649932</v>
       </c>
       <c r="D13">
-        <v>1.004123442781326</v>
+        <v>1.032242692426004</v>
       </c>
       <c r="E13">
-        <v>0.9498451519608985</v>
+        <v>1.030095653437733</v>
       </c>
       <c r="F13">
-        <v>0.8944283064143783</v>
+        <v>1.026419864603886</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025004234285497</v>
+        <v>1.036257618670562</v>
       </c>
       <c r="J13">
-        <v>0.9673696040107713</v>
+        <v>1.037184075454158</v>
       </c>
       <c r="K13">
-        <v>1.019128298265363</v>
+        <v>1.035859263078752</v>
       </c>
       <c r="L13">
-        <v>0.9659532181073583</v>
+        <v>1.033720351300946</v>
       </c>
       <c r="M13">
-        <v>0.9118500592520468</v>
+        <v>1.030058563990414</v>
       </c>
       <c r="N13">
-        <v>0.9687433798073111</v>
+        <v>1.038656995807979</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9368441705558569</v>
+        <v>1.030822432137432</v>
       </c>
       <c r="D14">
-        <v>1.005054456532456</v>
+        <v>1.032372527609771</v>
       </c>
       <c r="E14">
-        <v>0.9517129439480841</v>
+        <v>1.030361520095057</v>
       </c>
       <c r="F14">
-        <v>0.8974212140562665</v>
+        <v>1.026838638244761</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.025761918984602</v>
+        <v>1.036341394168713</v>
       </c>
       <c r="J14">
-        <v>0.9691424459496083</v>
+        <v>1.037428024872973</v>
       </c>
       <c r="K14">
-        <v>1.01989852321746</v>
+        <v>1.03595686693377</v>
       </c>
       <c r="L14">
-        <v>0.9676250454048384</v>
+        <v>1.033953397272713</v>
       </c>
       <c r="M14">
-        <v>0.9145967466124328</v>
+        <v>1.030443799072472</v>
       </c>
       <c r="N14">
-        <v>0.9705187393850491</v>
+        <v>1.038901291662951</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9382011214244467</v>
+        <v>1.031011030726859</v>
       </c>
       <c r="D15">
-        <v>1.005623169896613</v>
+        <v>1.032452479881623</v>
       </c>
       <c r="E15">
-        <v>0.9528523497777905</v>
+        <v>1.030525227697402</v>
       </c>
       <c r="F15">
-        <v>0.8992444773258176</v>
+        <v>1.027096514008889</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026223769856768</v>
+        <v>1.036392933819024</v>
       </c>
       <c r="J15">
-        <v>0.970223356343653</v>
+        <v>1.037578209961749</v>
       </c>
       <c r="K15">
-        <v>1.020368472281053</v>
+        <v>1.036016944209304</v>
       </c>
       <c r="L15">
-        <v>0.9686445221234367</v>
+        <v>1.034096872009328</v>
       </c>
       <c r="M15">
-        <v>0.9162700525431898</v>
+        <v>1.030681005766087</v>
       </c>
       <c r="N15">
-        <v>0.9716011847958353</v>
+        <v>1.039051690031778</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9458973390316352</v>
+        <v>1.032106986539879</v>
       </c>
       <c r="D16">
-        <v>1.00886229148491</v>
+        <v>1.032917177550639</v>
       </c>
       <c r="E16">
-        <v>0.9593200930923987</v>
+        <v>1.0314765401526</v>
       </c>
       <c r="F16">
-        <v>0.9095597495209858</v>
+        <v>1.02859528587273</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028839975582909</v>
+        <v>1.036691743515063</v>
       </c>
       <c r="J16">
-        <v>0.9763507668605219</v>
+        <v>1.038450531969884</v>
       </c>
       <c r="K16">
-        <v>1.023037143919503</v>
+        <v>1.036365713379944</v>
       </c>
       <c r="L16">
-        <v>0.9744258740802052</v>
+        <v>1.034930252204207</v>
       </c>
       <c r="M16">
-        <v>0.9257372329165269</v>
+        <v>1.03205939832505</v>
       </c>
       <c r="N16">
-        <v>0.9777372969384621</v>
+        <v>1.039925250837222</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9505595956890338</v>
+        <v>1.032792911931977</v>
       </c>
       <c r="D17">
-        <v>1.010835514931096</v>
+        <v>1.033208094594591</v>
       </c>
       <c r="E17">
-        <v>0.9632425172997703</v>
+        <v>1.032071936255768</v>
       </c>
       <c r="F17">
-        <v>0.9157885661009889</v>
+        <v>1.029533540948186</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030421753338766</v>
+        <v>1.036878151335535</v>
       </c>
       <c r="J17">
-        <v>0.9800598580563742</v>
+        <v>1.038996129817897</v>
       </c>
       <c r="K17">
-        <v>1.024656188708031</v>
+        <v>1.036583693717741</v>
       </c>
       <c r="L17">
-        <v>0.977927268024058</v>
+        <v>1.035451523351352</v>
       </c>
       <c r="M17">
-        <v>0.9314539346814756</v>
+        <v>1.032922072988084</v>
       </c>
       <c r="N17">
-        <v>0.9814516554692509</v>
+        <v>1.04047162349676</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9532238673092674</v>
+        <v>1.033192453822811</v>
       </c>
       <c r="D18">
-        <v>1.011966780689528</v>
+        <v>1.033377576127311</v>
       </c>
       <c r="E18">
-        <v>0.9654854524301298</v>
+        <v>1.032418745248657</v>
       </c>
       <c r="F18">
-        <v>0.9193417241836739</v>
+        <v>1.030080142549698</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031324478608999</v>
+        <v>1.036986511812097</v>
       </c>
       <c r="J18">
-        <v>0.9821784206204159</v>
+        <v>1.039313802414476</v>
       </c>
       <c r="K18">
-        <v>1.025582100219619</v>
+        <v>1.036710554045313</v>
       </c>
       <c r="L18">
-        <v>0.9799277902152367</v>
+        <v>1.035755042366173</v>
       </c>
       <c r="M18">
-        <v>0.9347148687881174</v>
+        <v>1.033424563776726</v>
       </c>
       <c r="N18">
-        <v>0.9835732266351364</v>
+        <v>1.040789747224864</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.954123346840516</v>
+        <v>1.033328595263534</v>
       </c>
       <c r="D19">
-        <v>1.012349298854879</v>
+        <v>1.033435330283418</v>
       </c>
       <c r="E19">
-        <v>0.9662429197215228</v>
+        <v>1.032536918099819</v>
       </c>
       <c r="F19">
-        <v>0.9205402985754597</v>
+        <v>1.03026640766266</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031629036670519</v>
+        <v>1.037023397719867</v>
       </c>
       <c r="J19">
-        <v>0.9828934907965872</v>
+        <v>1.039422025260514</v>
       </c>
       <c r="K19">
-        <v>1.025894799583896</v>
+        <v>1.036753762168058</v>
       </c>
       <c r="L19">
-        <v>0.9806031150205553</v>
+        <v>1.035858445233196</v>
       </c>
       <c r="M19">
-        <v>0.9358148443362959</v>
+        <v>1.033595783738619</v>
       </c>
       <c r="N19">
-        <v>0.9842893122929776</v>
+        <v>1.040898123759756</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9500651771327294</v>
+        <v>1.032719375359393</v>
       </c>
       <c r="D20">
-        <v>1.010625872735296</v>
+        <v>1.033176903244244</v>
       </c>
       <c r="E20">
-        <v>0.9628264025579468</v>
+        <v>1.032008105212961</v>
       </c>
       <c r="F20">
-        <v>0.9151286968346998</v>
+        <v>1.029432944301221</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030254132750215</v>
+        <v>1.036858189661046</v>
       </c>
       <c r="J20">
-        <v>0.9796666257279816</v>
+        <v>1.038937650958133</v>
       </c>
       <c r="K20">
-        <v>1.024484417311065</v>
+        <v>1.03656033590194</v>
       </c>
       <c r="L20">
-        <v>0.9775559926678421</v>
+        <v>1.035395650806596</v>
       </c>
       <c r="M20">
-        <v>0.9308483257206577</v>
+        <v>1.032829588076285</v>
       </c>
       <c r="N20">
-        <v>0.9810578647058481</v>
+        <v>1.040413061590308</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9361918753153832</v>
+        <v>1.030732261659236</v>
       </c>
       <c r="D21">
-        <v>1.004781330239909</v>
+        <v>1.032334303451139</v>
       </c>
       <c r="E21">
-        <v>0.9511653265458716</v>
+        <v>1.030283250197005</v>
       </c>
       <c r="F21">
-        <v>0.89654425469961</v>
+        <v>1.026715350018734</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.025539848411358</v>
+        <v>1.036316740467892</v>
       </c>
       <c r="J21">
-        <v>0.968622787741118</v>
+        <v>1.037356212926229</v>
       </c>
       <c r="K21">
-        <v>1.019672681534286</v>
+        <v>1.035928137475445</v>
       </c>
       <c r="L21">
-        <v>0.9671349638611798</v>
+        <v>1.033884794529162</v>
       </c>
       <c r="M21">
-        <v>0.9137919240417248</v>
+        <v>1.030330388122724</v>
       </c>
       <c r="N21">
-        <v>0.9699983432022969</v>
+        <v>1.038829377735005</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9268677625415299</v>
+        <v>1.029477791621856</v>
       </c>
       <c r="D22">
-        <v>1.000895738788009</v>
+        <v>1.031802634456791</v>
       </c>
       <c r="E22">
-        <v>0.9433449004942931</v>
+        <v>1.02919434453885</v>
       </c>
       <c r="F22">
-        <v>0.8839711215580282</v>
+        <v>1.025000413350031</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.022361992782032</v>
+        <v>1.035972944946994</v>
       </c>
       <c r="J22">
-        <v>0.9611907439978923</v>
+        <v>1.036356668112768</v>
       </c>
       <c r="K22">
-        <v>1.016449471778432</v>
+        <v>1.035528048467993</v>
       </c>
       <c r="L22">
-        <v>0.960128937546269</v>
+        <v>1.032929958931746</v>
       </c>
       <c r="M22">
-        <v>0.9022540623334581</v>
+        <v>1.028752550183945</v>
       </c>
       <c r="N22">
-        <v>0.9625557451044887</v>
+        <v>1.03782841345326</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9318735670406517</v>
+        <v>1.030143300819242</v>
       </c>
       <c r="D23">
-        <v>1.00297744408663</v>
+        <v>1.032084663754038</v>
       </c>
       <c r="E23">
-        <v>0.9475416972233315</v>
+        <v>1.029772019789404</v>
       </c>
       <c r="F23">
-        <v>0.8907301384276993</v>
+        <v>1.025910141993957</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.024068847523932</v>
+        <v>1.036155518819281</v>
       </c>
       <c r="J23">
-        <v>0.9651816441482836</v>
+        <v>1.036887048424612</v>
       </c>
       <c r="K23">
-        <v>1.018178697274942</v>
+        <v>1.035740391847776</v>
       </c>
       <c r="L23">
-        <v>0.9638903663110883</v>
+        <v>1.033436606143556</v>
       </c>
       <c r="M23">
-        <v>0.9084562682191516</v>
+        <v>1.029589619540451</v>
       </c>
       <c r="N23">
-        <v>0.9665523127908562</v>
+        <v>1.038359546965982</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9502887529474814</v>
+        <v>1.03275260506006</v>
       </c>
       <c r="D24">
-        <v>1.010720661502823</v>
+        <v>1.033190997907726</v>
       </c>
       <c r="E24">
-        <v>0.9630145649547581</v>
+        <v>1.032036949182338</v>
       </c>
       <c r="F24">
-        <v>0.9154271089050373</v>
+        <v>1.029478401654522</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03032993442272</v>
+        <v>1.036867210619613</v>
       </c>
       <c r="J24">
-        <v>0.9798444483567116</v>
+        <v>1.038964076784158</v>
       </c>
       <c r="K24">
-        <v>1.024562090106347</v>
+        <v>1.036570891170693</v>
       </c>
       <c r="L24">
-        <v>0.9777238843527732</v>
+        <v>1.035420898840582</v>
       </c>
       <c r="M24">
-        <v>0.9311222000183639</v>
+        <v>1.032871380166205</v>
       </c>
       <c r="N24">
-        <v>0.981235939863107</v>
+        <v>1.040439524944037</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9695206713051113</v>
+        <v>1.035759190731099</v>
       </c>
       <c r="D25">
-        <v>1.018942483360512</v>
+        <v>1.034466798006913</v>
       </c>
       <c r="E25">
-        <v>0.979227089432736</v>
+        <v>1.034646689471459</v>
       </c>
       <c r="F25">
-        <v>0.940986149980566</v>
+        <v>1.033593148824779</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036823399682766</v>
+        <v>1.037678675637715</v>
       </c>
       <c r="J25">
-        <v>0.9951192011692647</v>
+        <v>1.041352241611754</v>
       </c>
       <c r="K25">
-        <v>1.031253689833675</v>
+        <v>1.037523523068452</v>
       </c>
       <c r="L25">
-        <v>0.9921566713434151</v>
+        <v>1.037702847698863</v>
       </c>
       <c r="M25">
-        <v>0.9545753095886436</v>
+        <v>1.036652629803998</v>
       </c>
       <c r="N25">
-        <v>0.9965323845766928</v>
+        <v>1.042831081239615</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_128/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_128/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C2">
-        <v>1.038140866589673</v>
+        <v>0.9835283246197619</v>
       </c>
       <c r="D2">
-        <v>1.035478105637088</v>
+        <v>1.025011384612111</v>
       </c>
       <c r="E2">
-        <v>1.036713933457367</v>
+        <v>0.9910672226292581</v>
       </c>
       <c r="F2">
-        <v>1.036855476723082</v>
+        <v>0.9594870489250374</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038314527069739</v>
+        <v>1.041509718680051</v>
       </c>
       <c r="J2">
-        <v>1.043239918403781</v>
+        <v>1.00621311560067</v>
       </c>
       <c r="K2">
-        <v>1.038274595874669</v>
+        <v>1.036132930298085</v>
       </c>
       <c r="L2">
-        <v>1.039506886416251</v>
+        <v>1.002652424195296</v>
       </c>
       <c r="M2">
-        <v>1.039648025130748</v>
+        <v>0.9715412145706542</v>
       </c>
       <c r="N2">
-        <v>1.044721438749274</v>
+        <v>1.00764205363908</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.03986110267309</v>
+        <v>0.9930693276975906</v>
       </c>
       <c r="D3">
-        <v>1.036208875121174</v>
+        <v>1.029181093902437</v>
       </c>
       <c r="E3">
-        <v>1.038207001999305</v>
+        <v>0.9991460427304442</v>
       </c>
       <c r="F3">
-        <v>1.039213542259758</v>
+        <v>0.9720462003443957</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038769739696946</v>
+        <v>1.044673876677496</v>
       </c>
       <c r="J3">
-        <v>1.044600960472505</v>
+        <v>1.013750729676564</v>
       </c>
       <c r="K3">
-        <v>1.03881497757039</v>
+        <v>1.039453730477625</v>
       </c>
       <c r="L3">
-        <v>1.040807802397683</v>
+        <v>1.009789861772928</v>
       </c>
       <c r="M3">
-        <v>1.041811680137632</v>
+        <v>0.9830497072540543</v>
       </c>
       <c r="N3">
-        <v>1.046084413653781</v>
+        <v>1.015190371991539</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.040970149254108</v>
+        <v>0.998988651991729</v>
       </c>
       <c r="D4">
-        <v>1.036680132471149</v>
+        <v>1.031781812007581</v>
       </c>
       <c r="E4">
-        <v>1.039169558261267</v>
+        <v>1.004163667755439</v>
       </c>
       <c r="F4">
-        <v>1.040734650820889</v>
+        <v>0.9798244611729571</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.03906133762111</v>
+        <v>1.046623264950446</v>
       </c>
       <c r="J4">
-        <v>1.045477326239966</v>
+        <v>1.018418263582702</v>
       </c>
       <c r="K4">
-        <v>1.03916237839967</v>
+        <v>1.041511213048455</v>
       </c>
       <c r="L4">
-        <v>1.04164553380857</v>
+        <v>1.014212099388328</v>
       </c>
       <c r="M4">
-        <v>1.043206700744708</v>
+        <v>0.9901726447396908</v>
       </c>
       <c r="N4">
-        <v>1.046962023961152</v>
+        <v>1.019864534331197</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.041435439614219</v>
+        <v>1.001420974800097</v>
       </c>
       <c r="D5">
-        <v>1.036877870857753</v>
+        <v>1.032853413576175</v>
       </c>
       <c r="E5">
-        <v>1.039573380853299</v>
+        <v>1.00622663683528</v>
       </c>
       <c r="F5">
-        <v>1.041373027166922</v>
+        <v>0.9830181413762806</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039183223543237</v>
+        <v>1.047420894041153</v>
       </c>
       <c r="J5">
-        <v>1.045844732373075</v>
+        <v>1.020334050528549</v>
       </c>
       <c r="K5">
-        <v>1.039307888972226</v>
+        <v>1.042355781534533</v>
       </c>
       <c r="L5">
-        <v>1.041996761908095</v>
+        <v>1.016027758636777</v>
       </c>
       <c r="M5">
-        <v>1.043791997588426</v>
+        <v>0.9930960686061312</v>
       </c>
       <c r="N5">
-        <v>1.047329951853113</v>
+        <v>1.021783041914251</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.041513508599431</v>
+        <v>1.00182620562769</v>
       </c>
       <c r="D6">
-        <v>1.036911049959719</v>
+        <v>1.033032107402317</v>
       </c>
       <c r="E6">
-        <v>1.039641135876314</v>
+        <v>1.006570397153275</v>
       </c>
       <c r="F6">
-        <v>1.04148014990875</v>
+        <v>0.9835500887707365</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039203647730813</v>
+        <v>1.047553577778662</v>
       </c>
       <c r="J6">
-        <v>1.045906362244042</v>
+        <v>1.020653097220203</v>
       </c>
       <c r="K6">
-        <v>1.039332289502843</v>
+        <v>1.042496431293977</v>
       </c>
       <c r="L6">
-        <v>1.042055679128973</v>
+        <v>1.016330161849302</v>
       </c>
       <c r="M6">
-        <v>1.043890203750106</v>
+        <v>0.9935829295101718</v>
       </c>
       <c r="N6">
-        <v>1.047391669245565</v>
+        <v>1.022102541688802</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.04097637020426</v>
+        <v>0.9990213676768213</v>
       </c>
       <c r="D7">
-        <v>1.03668277614072</v>
+        <v>1.031796214292829</v>
       </c>
       <c r="E7">
-        <v>1.039174957421977</v>
+        <v>1.004191411043829</v>
       </c>
       <c r="F7">
-        <v>1.040743185107367</v>
+        <v>0.9798674264222413</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039062969016872</v>
+        <v>1.046634007000308</v>
       </c>
       <c r="J7">
-        <v>1.0454822395171</v>
+        <v>1.018444040270833</v>
       </c>
       <c r="K7">
-        <v>1.039164324821388</v>
+        <v>1.041522576565384</v>
       </c>
       <c r="L7">
-        <v>1.041650230664598</v>
+        <v>1.014236526729182</v>
       </c>
       <c r="M7">
-        <v>1.043214526066867</v>
+        <v>0.9902119789792088</v>
       </c>
       <c r="N7">
-        <v>1.046966944215703</v>
+        <v>1.019890347625182</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.038723081090047</v>
+        <v>0.9868084623345987</v>
       </c>
       <c r="D8">
-        <v>1.035725406611352</v>
+        <v>1.026441725305386</v>
       </c>
       <c r="E8">
-        <v>1.037219269517685</v>
+        <v>0.9938434170913818</v>
       </c>
       <c r="F8">
-        <v>1.037653391989859</v>
+        <v>0.9638081921236956</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038468983576263</v>
+        <v>1.042600374014232</v>
       </c>
       <c r="J8">
-        <v>1.043700793035233</v>
+        <v>1.00880636823723</v>
       </c>
       <c r="K8">
-        <v>1.038457691757766</v>
+        <v>1.037275053247608</v>
       </c>
       <c r="L8">
-        <v>1.039947384334199</v>
+        <v>1.005107434122138</v>
       </c>
       <c r="M8">
-        <v>1.040380297333382</v>
+        <v>0.9755017957584112</v>
       </c>
       <c r="N8">
-        <v>1.045182967875497</v>
+        <v>1.010238988991835</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.034720514914967</v>
+        <v>0.9630882533880407</v>
       </c>
       <c r="D9">
-        <v>1.034025936397334</v>
+        <v>1.016177860544998</v>
       </c>
       <c r="E9">
-        <v>1.033745118796011</v>
+        <v>0.973798765167521</v>
       </c>
       <c r="F9">
-        <v>1.032171218146889</v>
+        <v>0.9324602406668709</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037399418563429</v>
+        <v>1.034658110813443</v>
       </c>
       <c r="J9">
-        <v>1.040527848416889</v>
+        <v>0.9900153485712104</v>
       </c>
       <c r="K9">
-        <v>1.037194967300348</v>
+        <v>1.029013805020005</v>
       </c>
       <c r="L9">
-        <v>1.036915069874215</v>
+        <v>0.987331741972044</v>
       </c>
       <c r="M9">
-        <v>1.035346336699589</v>
+        <v>0.946753187879626</v>
       </c>
       <c r="N9">
-        <v>1.042005517311853</v>
+        <v>0.9914212839225293</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.032029395828266</v>
+        <v>0.9453626888275699</v>
       </c>
       <c r="D10">
-        <v>1.032884273184938</v>
+        <v>1.008636535600133</v>
       </c>
       <c r="E10">
-        <v>1.031409189868671</v>
+        <v>0.9588704921624933</v>
       </c>
       <c r="F10">
-        <v>1.028489162904156</v>
+        <v>0.90884451743177</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036670627673494</v>
+        <v>1.028658424929785</v>
       </c>
       <c r="J10">
-        <v>1.03838879719825</v>
+        <v>0.9759252824493403</v>
       </c>
       <c r="K10">
-        <v>1.036341040944949</v>
+        <v>1.022851586159549</v>
       </c>
       <c r="L10">
-        <v>1.034871271455367</v>
+        <v>0.974024300600426</v>
       </c>
       <c r="M10">
-        <v>1.031961813214676</v>
+        <v>0.9250807987458404</v>
       </c>
       <c r="N10">
-        <v>1.039863428395131</v>
+        <v>0.9773112082906128</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.030858439388013</v>
+        <v>0.937104007278271</v>
       </c>
       <c r="D11">
-        <v>1.032387791739671</v>
+        <v>1.005163300974676</v>
       </c>
       <c r="E11">
-        <v>1.030392775157118</v>
+        <v>0.9519311016338891</v>
       </c>
       <c r="F11">
-        <v>1.026887870972091</v>
+        <v>0.8977704522868218</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03635123678712</v>
+        <v>1.025850369088188</v>
       </c>
       <c r="J11">
-        <v>1.037456699806287</v>
+        <v>0.9693494374059323</v>
       </c>
       <c r="K11">
-        <v>1.03596833821108</v>
+        <v>1.019988497505516</v>
       </c>
       <c r="L11">
-        <v>1.033980790861792</v>
+        <v>0.967820263390486</v>
       </c>
       <c r="M11">
-        <v>1.030489086703723</v>
+        <v>0.9149172591125196</v>
       </c>
       <c r="N11">
-        <v>1.038930007317958</v>
+        <v>0.9707260247929832</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.030422615904799</v>
+        <v>0.9339341834793475</v>
       </c>
       <c r="D12">
-        <v>1.032203049763995</v>
+        <v>1.003837299015543</v>
       </c>
       <c r="E12">
-        <v>1.030014471116093</v>
+        <v>0.9492704572894455</v>
       </c>
       <c r="F12">
-        <v>1.026291998319505</v>
+        <v>0.8935063901078415</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036232019821076</v>
+        <v>1.024770961293191</v>
       </c>
       <c r="J12">
-        <v>1.03710957479424</v>
+        <v>0.9668238898933355</v>
       </c>
       <c r="K12">
-        <v>1.035829450850619</v>
+        <v>1.018891349849353</v>
       </c>
       <c r="L12">
-        <v>1.033649181387268</v>
+        <v>0.9654386623240822</v>
       </c>
       <c r="M12">
-        <v>1.029940931651715</v>
+        <v>0.9110040056808872</v>
       </c>
       <c r="N12">
-        <v>1.038582389348579</v>
+        <v>0.9681968907132342</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.030516141649932</v>
+        <v>0.9346190198419878</v>
       </c>
       <c r="D13">
-        <v>1.032242692426004</v>
+        <v>1.004123442781326</v>
       </c>
       <c r="E13">
-        <v>1.030095653437733</v>
+        <v>0.9498451519608968</v>
       </c>
       <c r="F13">
-        <v>1.026419864603886</v>
+        <v>0.8944283064143769</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036257618670562</v>
+        <v>1.025004234285496</v>
       </c>
       <c r="J13">
-        <v>1.037184075454158</v>
+        <v>0.9673696040107701</v>
       </c>
       <c r="K13">
-        <v>1.035859263078752</v>
+        <v>1.019128298265363</v>
       </c>
       <c r="L13">
-        <v>1.033720351300946</v>
+        <v>0.9659532181073569</v>
       </c>
       <c r="M13">
-        <v>1.030058563990414</v>
+        <v>0.9118500592520454</v>
       </c>
       <c r="N13">
-        <v>1.038656995807979</v>
+        <v>0.9687433798073096</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.030822432137432</v>
+        <v>0.9368441705558556</v>
       </c>
       <c r="D14">
-        <v>1.032372527609771</v>
+        <v>1.005054456532456</v>
       </c>
       <c r="E14">
-        <v>1.030361520095057</v>
+        <v>0.9517129439480828</v>
       </c>
       <c r="F14">
-        <v>1.026838638244761</v>
+        <v>0.8974212140562652</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036341394168713</v>
+        <v>1.025761918984601</v>
       </c>
       <c r="J14">
-        <v>1.037428024872973</v>
+        <v>0.969142445949607</v>
       </c>
       <c r="K14">
-        <v>1.03595686693377</v>
+        <v>1.019898523217459</v>
       </c>
       <c r="L14">
-        <v>1.033953397272713</v>
+        <v>0.9676250454048371</v>
       </c>
       <c r="M14">
-        <v>1.030443799072472</v>
+        <v>0.9145967466124313</v>
       </c>
       <c r="N14">
-        <v>1.038901291662951</v>
+        <v>0.9705187393850478</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.031011030726859</v>
+        <v>0.9382011214244469</v>
       </c>
       <c r="D15">
-        <v>1.032452479881623</v>
+        <v>1.005623169896613</v>
       </c>
       <c r="E15">
-        <v>1.030525227697402</v>
+        <v>0.9528523497777904</v>
       </c>
       <c r="F15">
-        <v>1.027096514008889</v>
+        <v>0.8992444773258179</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036392933819024</v>
+        <v>1.026223769856768</v>
       </c>
       <c r="J15">
-        <v>1.037578209961749</v>
+        <v>0.9702233563436531</v>
       </c>
       <c r="K15">
-        <v>1.036016944209304</v>
+        <v>1.020368472281052</v>
       </c>
       <c r="L15">
-        <v>1.034096872009328</v>
+        <v>0.9686445221234365</v>
       </c>
       <c r="M15">
-        <v>1.030681005766087</v>
+        <v>0.9162700525431902</v>
       </c>
       <c r="N15">
-        <v>1.039051690031778</v>
+        <v>0.9716011847958355</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.032106986539879</v>
+        <v>0.9458973390316341</v>
       </c>
       <c r="D16">
-        <v>1.032917177550639</v>
+        <v>1.008862291484909</v>
       </c>
       <c r="E16">
-        <v>1.0314765401526</v>
+        <v>0.959320093092398</v>
       </c>
       <c r="F16">
-        <v>1.02859528587273</v>
+        <v>0.9095597495209841</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036691743515063</v>
+        <v>1.028839975582908</v>
       </c>
       <c r="J16">
-        <v>1.038450531969884</v>
+        <v>0.9763507668605211</v>
       </c>
       <c r="K16">
-        <v>1.036365713379944</v>
+        <v>1.023037143919502</v>
       </c>
       <c r="L16">
-        <v>1.034930252204207</v>
+        <v>0.9744258740802044</v>
       </c>
       <c r="M16">
-        <v>1.03205939832505</v>
+        <v>0.9257372329165252</v>
       </c>
       <c r="N16">
-        <v>1.039925250837222</v>
+        <v>0.9777372969384613</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.032792911931977</v>
+        <v>0.9505595956890337</v>
       </c>
       <c r="D17">
-        <v>1.033208094594591</v>
+        <v>1.010835514931097</v>
       </c>
       <c r="E17">
-        <v>1.032071936255768</v>
+        <v>0.9632425172997701</v>
       </c>
       <c r="F17">
-        <v>1.029533540948186</v>
+        <v>0.9157885661009882</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036878151335535</v>
+        <v>1.030421753338767</v>
       </c>
       <c r="J17">
-        <v>1.038996129817897</v>
+        <v>0.9800598580563741</v>
       </c>
       <c r="K17">
-        <v>1.036583693717741</v>
+        <v>1.024656188708031</v>
       </c>
       <c r="L17">
-        <v>1.035451523351352</v>
+        <v>0.977927268024058</v>
       </c>
       <c r="M17">
-        <v>1.032922072988084</v>
+        <v>0.9314539346814752</v>
       </c>
       <c r="N17">
-        <v>1.04047162349676</v>
+        <v>0.9814516554692509</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.033192453822811</v>
+        <v>0.953223867309267</v>
       </c>
       <c r="D18">
-        <v>1.033377576127311</v>
+        <v>1.011966780689528</v>
       </c>
       <c r="E18">
-        <v>1.032418745248657</v>
+        <v>0.9654854524301292</v>
       </c>
       <c r="F18">
-        <v>1.030080142549698</v>
+        <v>0.9193417241836727</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036986511812097</v>
+        <v>1.031324478608999</v>
       </c>
       <c r="J18">
-        <v>1.039313802414476</v>
+        <v>0.9821784206204154</v>
       </c>
       <c r="K18">
-        <v>1.036710554045313</v>
+        <v>1.025582100219619</v>
       </c>
       <c r="L18">
-        <v>1.035755042366173</v>
+        <v>0.9799277902152362</v>
       </c>
       <c r="M18">
-        <v>1.033424563776726</v>
+        <v>0.9347148687881164</v>
       </c>
       <c r="N18">
-        <v>1.040789747224864</v>
+        <v>0.9835732266351357</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.033328595263534</v>
+        <v>0.9541233468405154</v>
       </c>
       <c r="D19">
-        <v>1.033435330283418</v>
+        <v>1.012349298854879</v>
       </c>
       <c r="E19">
-        <v>1.032536918099819</v>
+        <v>0.966242919721522</v>
       </c>
       <c r="F19">
-        <v>1.03026640766266</v>
+        <v>0.9205402985754593</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037023397719867</v>
+        <v>1.031629036670519</v>
       </c>
       <c r="J19">
-        <v>1.039422025260514</v>
+        <v>0.9828934907965867</v>
       </c>
       <c r="K19">
-        <v>1.036753762168058</v>
+        <v>1.025894799583896</v>
       </c>
       <c r="L19">
-        <v>1.035858445233196</v>
+        <v>0.9806031150205545</v>
       </c>
       <c r="M19">
-        <v>1.033595783738619</v>
+        <v>0.9358148443362956</v>
       </c>
       <c r="N19">
-        <v>1.040898123759756</v>
+        <v>0.9842893122929772</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.032719375359393</v>
+        <v>0.9500651771327283</v>
       </c>
       <c r="D20">
-        <v>1.033176903244244</v>
+        <v>1.010625872735296</v>
       </c>
       <c r="E20">
-        <v>1.032008105212961</v>
+        <v>0.9628264025579457</v>
       </c>
       <c r="F20">
-        <v>1.029432944301221</v>
+        <v>0.9151286968346984</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036858189661046</v>
+        <v>1.030254132750215</v>
       </c>
       <c r="J20">
-        <v>1.038937650958133</v>
+        <v>0.9796666257279806</v>
       </c>
       <c r="K20">
-        <v>1.03656033590194</v>
+        <v>1.024484417311065</v>
       </c>
       <c r="L20">
-        <v>1.035395650806596</v>
+        <v>0.9775559926678411</v>
       </c>
       <c r="M20">
-        <v>1.032829588076285</v>
+        <v>0.9308483257206565</v>
       </c>
       <c r="N20">
-        <v>1.040413061590308</v>
+        <v>0.9810578647058469</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.030732261659236</v>
+        <v>0.9361918753153837</v>
       </c>
       <c r="D21">
-        <v>1.032334303451139</v>
+        <v>1.004781330239909</v>
       </c>
       <c r="E21">
-        <v>1.030283250197005</v>
+        <v>0.9511653265458722</v>
       </c>
       <c r="F21">
-        <v>1.026715350018734</v>
+        <v>0.8965442546996107</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036316740467892</v>
+        <v>1.025539848411358</v>
       </c>
       <c r="J21">
-        <v>1.037356212926229</v>
+        <v>0.9686227877411184</v>
       </c>
       <c r="K21">
-        <v>1.035928137475445</v>
+        <v>1.019672681534286</v>
       </c>
       <c r="L21">
-        <v>1.033884794529162</v>
+        <v>0.9671349638611804</v>
       </c>
       <c r="M21">
-        <v>1.030330388122724</v>
+        <v>0.9137919240417254</v>
       </c>
       <c r="N21">
-        <v>1.038829377735005</v>
+        <v>0.9699983432022975</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.029477791621856</v>
+        <v>0.9268677625415286</v>
       </c>
       <c r="D22">
-        <v>1.031802634456791</v>
+        <v>1.000895738788009</v>
       </c>
       <c r="E22">
-        <v>1.02919434453885</v>
+        <v>0.943344900494292</v>
       </c>
       <c r="F22">
-        <v>1.025000413350031</v>
+        <v>0.883971121558027</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035972944946994</v>
+        <v>1.022361992782032</v>
       </c>
       <c r="J22">
-        <v>1.036356668112768</v>
+        <v>0.9611907439978913</v>
       </c>
       <c r="K22">
-        <v>1.035528048467993</v>
+        <v>1.016449471778432</v>
       </c>
       <c r="L22">
-        <v>1.032929958931746</v>
+        <v>0.960128937546268</v>
       </c>
       <c r="M22">
-        <v>1.028752550183945</v>
+        <v>0.902254062333457</v>
       </c>
       <c r="N22">
-        <v>1.03782841345326</v>
+        <v>0.9625557451044876</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.030143300819242</v>
+        <v>0.9318735670406502</v>
       </c>
       <c r="D23">
-        <v>1.032084663754038</v>
+        <v>1.002977444086629</v>
       </c>
       <c r="E23">
-        <v>1.029772019789404</v>
+        <v>0.9475416972233301</v>
       </c>
       <c r="F23">
-        <v>1.025910141993957</v>
+        <v>0.890730138427698</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036155518819281</v>
+        <v>1.024068847523931</v>
       </c>
       <c r="J23">
-        <v>1.036887048424612</v>
+        <v>0.9651816441482821</v>
       </c>
       <c r="K23">
-        <v>1.035740391847776</v>
+        <v>1.018178697274941</v>
       </c>
       <c r="L23">
-        <v>1.033436606143556</v>
+        <v>0.963890366311087</v>
       </c>
       <c r="M23">
-        <v>1.029589619540451</v>
+        <v>0.9084562682191502</v>
       </c>
       <c r="N23">
-        <v>1.038359546965982</v>
+        <v>0.9665523127908545</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.03275260506006</v>
+        <v>0.9502887529474804</v>
       </c>
       <c r="D24">
-        <v>1.033190997907726</v>
+        <v>1.010720661502822</v>
       </c>
       <c r="E24">
-        <v>1.032036949182338</v>
+        <v>0.9630145649547568</v>
       </c>
       <c r="F24">
-        <v>1.029478401654522</v>
+        <v>0.9154271089050361</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036867210619613</v>
+        <v>1.030329934422719</v>
       </c>
       <c r="J24">
-        <v>1.038964076784158</v>
+        <v>0.9798444483567103</v>
       </c>
       <c r="K24">
-        <v>1.036570891170693</v>
+        <v>1.024562090106347</v>
       </c>
       <c r="L24">
-        <v>1.035420898840582</v>
+        <v>0.977723884352772</v>
       </c>
       <c r="M24">
-        <v>1.032871380166205</v>
+        <v>0.9311222000183628</v>
       </c>
       <c r="N24">
-        <v>1.040439524944037</v>
+        <v>0.9812359398631061</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.035759190731099</v>
+        <v>0.9695206713051132</v>
       </c>
       <c r="D25">
-        <v>1.034466798006913</v>
+        <v>1.018942483360513</v>
       </c>
       <c r="E25">
-        <v>1.034646689471459</v>
+        <v>0.9792270894327381</v>
       </c>
       <c r="F25">
-        <v>1.033593148824779</v>
+        <v>0.9409861499805684</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037678675637715</v>
+        <v>1.036823399682767</v>
       </c>
       <c r="J25">
-        <v>1.041352241611754</v>
+        <v>0.9951192011692667</v>
       </c>
       <c r="K25">
-        <v>1.037523523068452</v>
+        <v>1.031253689833676</v>
       </c>
       <c r="L25">
-        <v>1.037702847698863</v>
+        <v>0.992156671343417</v>
       </c>
       <c r="M25">
-        <v>1.036652629803998</v>
+        <v>0.9545753095886458</v>
       </c>
       <c r="N25">
-        <v>1.042831081239615</v>
+        <v>0.9965323845766946</v>
       </c>
     </row>
   </sheetData>
